--- a/MergeAttributesApplication/MergeAttributes.xlsx
+++ b/MergeAttributesApplication/MergeAttributes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MergeAttributesApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Conti_AM\MergeAttributesApplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BDAAB-F891-4F0F-8DC3-2AF19AFF916E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC62BD4-5798-4CE5-936A-375817A4760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>SourceAttribute</t>
   </si>
@@ -36,13 +36,7 @@
     <t>Special Characteristic</t>
   </si>
   <si>
-    <t>Test Type</t>
-  </si>
-  <si>
-    <t>Verification Criteria</t>
-  </si>
-  <si>
-    <t>External Attribute 1</t>
+    <t>SpecialCharacteristic</t>
   </si>
 </sst>
 </file>
@@ -375,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,16 +397,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{6006a9c5-d130-408c-bc8e-3b5ecdb17aa0}" enabled="1" method="Standard" siteId="{8d4b558f-7b2e-40ba-ad1f-e04d79e6265a}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>